--- a/4_semester/ИТ/IT-lab3.xlsx
+++ b/4_semester/ИТ/IT-lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoki\Documents\SUAI_09.03.02\4_semester\ИТ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F6A1EF-17D7-412C-8295-AE1827D985F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ABB804-EA09-4DBB-8800-05D8A7B6C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{0F7463D3-4BAD-41E1-B70E-B087DB4D4303}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Вид сырья</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Общий расход сырья на изделия</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,6 +661,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
       <c r="B9">
         <v>7</v>
       </c>
